--- a/dados/brutos/welington_gerais_id_colecao_coordenadas_fabricius.xlsx
+++ b/dados/brutos/welington_gerais_id_colecao_coordenadas_fabricius.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/09c5e1e804f91ad8/DOUTORADO/Do Mestrado/HP Genero Gymnodactylus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55655b1a8b6da948/Documentos/mestrado_unb/lacv/analises_mestrado/dados/brutos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D8C1DACC-A0A9-DA46-9DBB-5FD30503F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{199682F6-1EA6-7C40-B332-8B7C105FB553}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D8C1DACC-A0A9-DA46-9DBB-5FD30503F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84699A5F-8A17-4724-BF82-6C76AA70E2AF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27180" tabRatio="992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="190" yWindow="-20" windowWidth="8780" windowHeight="10800" tabRatio="992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral Cassimiro" sheetId="1" r:id="rId1"/>
     <sheet name="Domingos 2014" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Geral Cassimiro'!$A$1:$G$266</definedName>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="539">
   <si>
     <t>Espécie</t>
   </si>
@@ -1624,6 +1626,42 @@
   </si>
   <si>
     <t>MRT6435</t>
+  </si>
+  <si>
+    <t>bichos na coleção</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>chunb</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>lacv</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b </t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -1888,56 +1926,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="51">
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2026,7 +2064,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2329,7 +2367,7 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="58.83203125" style="7" bestFit="1" customWidth="1"/>
@@ -2340,7 +2378,7 @@
     <col min="8" max="8" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2366,7 +2404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2392,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2444,7 +2482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2470,7 +2508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2522,7 +2560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2545,7 +2583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2568,7 +2606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2594,7 +2632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2617,7 +2655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2640,7 +2678,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2692,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2715,7 +2753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -2738,7 +2776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2761,7 +2799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -2784,7 +2822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2807,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2833,7 +2871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2859,7 +2897,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2885,7 +2923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2908,7 +2946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2934,7 +2972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2957,7 +2995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -2983,7 +3021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3006,7 +3044,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -3032,7 +3070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -3058,7 +3096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3084,7 +3122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -3107,7 +3145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -3130,7 +3168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3153,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3176,7 +3214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3199,7 +3237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -3222,7 +3260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>26</v>
       </c>
@@ -3245,7 +3283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -3271,7 +3309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -3323,7 +3361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -3347,7 +3385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>43</v>
       </c>
@@ -3373,7 +3411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -3396,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -3419,7 +3457,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -3442,7 +3480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3468,7 +3506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3491,7 +3529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -3517,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3540,7 +3578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>26</v>
       </c>
@@ -3563,7 +3601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -3589,7 +3627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -3615,7 +3653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -3638,7 +3676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -3664,7 +3702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3687,7 +3725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>26</v>
       </c>
@@ -3710,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -3733,7 +3771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>26</v>
       </c>
@@ -3756,7 +3794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -3779,7 +3817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>26</v>
       </c>
@@ -3802,7 +3840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -3825,7 +3863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>26</v>
       </c>
@@ -3848,7 +3886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -3871,7 +3909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -3894,7 +3932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -3917,7 +3955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -3940,7 +3978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -3963,7 +4001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -3986,7 +4024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4009,7 +4047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4032,7 +4070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4055,7 +4093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4078,7 +4116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4101,7 +4139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4124,7 +4162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4147,7 +4185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4170,7 +4208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4193,7 +4231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4216,7 +4254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -4239,7 +4277,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4262,7 +4300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4285,7 +4323,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4308,7 +4346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4331,7 +4369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4354,7 +4392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4377,7 +4415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -4400,7 +4438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -4423,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>57</v>
       </c>
@@ -4446,7 +4484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -4469,7 +4507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>57</v>
       </c>
@@ -4492,7 +4530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>57</v>
       </c>
@@ -4515,7 +4553,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>57</v>
       </c>
@@ -4536,7 +4574,7 @@
       </c>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -4559,7 +4597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -4582,7 +4620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -4605,7 +4643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -4628,7 +4666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -4651,7 +4689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -4674,7 +4712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -4697,7 +4735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -4720,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>57</v>
       </c>
@@ -4743,7 +4781,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>57</v>
       </c>
@@ -4766,7 +4804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>57</v>
       </c>
@@ -4789,7 +4827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>57</v>
       </c>
@@ -4812,7 +4850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>57</v>
       </c>
@@ -4835,7 +4873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -4861,7 +4899,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -4884,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>57</v>
       </c>
@@ -4907,7 +4945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -4930,7 +4968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>179</v>
       </c>
@@ -4953,7 +4991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -4976,7 +5014,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>179</v>
       </c>
@@ -4999,7 +5037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>179</v>
       </c>
@@ -5022,7 +5060,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>54</v>
       </c>
@@ -5048,7 +5086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>13</v>
       </c>
@@ -5071,7 +5109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>188</v>
       </c>
@@ -5094,7 +5132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -5117,7 +5155,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -5140,7 +5178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -5163,7 +5201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -5189,7 +5227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -5215,7 +5253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>13</v>
       </c>
@@ -5238,7 +5276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -5264,7 +5302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>57</v>
       </c>
@@ -5287,7 +5325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>57</v>
       </c>
@@ -5313,7 +5351,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>57</v>
       </c>
@@ -5339,7 +5377,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>57</v>
       </c>
@@ -5362,7 +5400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>57</v>
       </c>
@@ -5385,7 +5423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>57</v>
       </c>
@@ -5408,7 +5446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -5431,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -5454,7 +5492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -5477,7 +5515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -5503,7 +5541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -5526,7 +5564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -5549,7 +5587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -5572,7 +5610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -5595,7 +5633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -5618,7 +5656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -5644,7 +5682,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -5667,7 +5705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -5690,7 +5728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -5716,7 +5754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -5739,7 +5777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -5762,7 +5800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -5788,7 +5826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -5811,7 +5849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -5834,7 +5872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -5857,7 +5895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -5880,7 +5918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -5903,7 +5941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -5926,7 +5964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -5949,7 +5987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -5972,7 +6010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -5998,7 +6036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -6021,7 +6059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -6044,7 +6082,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -6067,7 +6105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>57</v>
       </c>
@@ -6090,7 +6128,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -6113,7 +6151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -6136,7 +6174,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>13</v>
       </c>
@@ -6159,7 +6197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -6182,7 +6220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>13</v>
       </c>
@@ -6205,7 +6243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>13</v>
       </c>
@@ -6251,7 +6289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -6274,7 +6312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -6297,7 +6335,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -6320,7 +6358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -6343,7 +6381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>13</v>
       </c>
@@ -6366,7 +6404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>13</v>
       </c>
@@ -6389,7 +6427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>13</v>
       </c>
@@ -6412,7 +6450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>13</v>
       </c>
@@ -6435,7 +6473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -6458,7 +6496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>13</v>
       </c>
@@ -6481,7 +6519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -6504,7 +6542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -6527,7 +6565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>13</v>
       </c>
@@ -6550,7 +6588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>13</v>
       </c>
@@ -6573,7 +6611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>13</v>
       </c>
@@ -6596,7 +6634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>13</v>
       </c>
@@ -6619,7 +6657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>13</v>
       </c>
@@ -6642,7 +6680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>13</v>
       </c>
@@ -6665,7 +6703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>13</v>
       </c>
@@ -6688,7 +6726,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -6711,7 +6749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>13</v>
       </c>
@@ -6734,7 +6772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -6757,7 +6795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>13</v>
       </c>
@@ -6780,7 +6818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -6803,7 +6841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>13</v>
       </c>
@@ -6826,7 +6864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>13</v>
       </c>
@@ -6849,7 +6887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>13</v>
       </c>
@@ -6872,7 +6910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>13</v>
       </c>
@@ -6895,7 +6933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -6918,7 +6956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>13</v>
       </c>
@@ -6941,7 +6979,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>13</v>
       </c>
@@ -6964,7 +7002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -6987,7 +7025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>13</v>
       </c>
@@ -7010,7 +7048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>13</v>
       </c>
@@ -7033,7 +7071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>13</v>
       </c>
@@ -7056,7 +7094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -7079,7 +7117,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>13</v>
       </c>
@@ -7102,7 +7140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>26</v>
       </c>
@@ -7125,7 +7163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>8</v>
       </c>
@@ -7151,7 +7189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>26</v>
       </c>
@@ -7174,7 +7212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>26</v>
       </c>
@@ -7197,7 +7235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>26</v>
       </c>
@@ -7220,7 +7258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>26</v>
       </c>
@@ -7243,7 +7281,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -7269,7 +7307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -7292,7 +7330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -7315,7 +7353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>26</v>
       </c>
@@ -7338,7 +7376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>26</v>
       </c>
@@ -7361,7 +7399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -7384,7 +7422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -7407,7 +7445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>13</v>
       </c>
@@ -7430,7 +7468,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>13</v>
       </c>
@@ -7453,7 +7491,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>13</v>
       </c>
@@ -7476,7 +7514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>13</v>
       </c>
@@ -7499,7 +7537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>13</v>
       </c>
@@ -7522,7 +7560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>13</v>
       </c>
@@ -7545,7 +7583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>13</v>
       </c>
@@ -7568,7 +7606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -7591,7 +7629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>13</v>
       </c>
@@ -7614,7 +7652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>13</v>
       </c>
@@ -7637,7 +7675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>13</v>
       </c>
@@ -7660,7 +7698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>13</v>
       </c>
@@ -7683,7 +7721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>13</v>
       </c>
@@ -7706,7 +7744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>13</v>
       </c>
@@ -7729,7 +7767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -7752,7 +7790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -7775,7 +7813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>13</v>
       </c>
@@ -7798,7 +7836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>13</v>
       </c>
@@ -7821,7 +7859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>13</v>
       </c>
@@ -7844,7 +7882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>13</v>
       </c>
@@ -7867,7 +7905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -7890,7 +7928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>13</v>
       </c>
@@ -7913,7 +7951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>13</v>
       </c>
@@ -7936,7 +7974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>13</v>
       </c>
@@ -7959,7 +7997,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>13</v>
       </c>
@@ -7982,7 +8020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>13</v>
       </c>
@@ -8005,7 +8043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>13</v>
       </c>
@@ -8028,7 +8066,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -8051,7 +8089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>57</v>
       </c>
@@ -8074,7 +8112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>57</v>
       </c>
@@ -8097,7 +8135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>57</v>
       </c>
@@ -8120,7 +8158,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>57</v>
       </c>
@@ -8143,7 +8181,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>57</v>
       </c>
@@ -8166,7 +8204,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>57</v>
       </c>
@@ -8189,7 +8227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>57</v>
       </c>
@@ -8212,7 +8250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>57</v>
       </c>
@@ -8235,7 +8273,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>57</v>
       </c>
@@ -8258,7 +8296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>57</v>
       </c>
@@ -8281,7 +8319,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>57</v>
       </c>
@@ -8304,7 +8342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>57</v>
       </c>
@@ -8327,7 +8365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>57</v>
       </c>
@@ -8350,7 +8388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>57</v>
       </c>
@@ -8373,7 +8411,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>57</v>
       </c>
@@ -8396,7 +8434,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>57</v>
       </c>
@@ -8419,7 +8457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>57</v>
       </c>
@@ -8442,7 +8480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>57</v>
       </c>
@@ -8465,7 +8503,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>57</v>
       </c>
@@ -8488,7 +8526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>57</v>
       </c>
@@ -8511,7 +8549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>57</v>
       </c>
@@ -8534,7 +8572,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>57</v>
       </c>
@@ -8557,7 +8595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>57</v>
       </c>
@@ -8596,18 +8634,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>410</v>
       </c>
@@ -8645,280 +8683,275 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E2" s="1">
-        <v>14578</v>
-      </c>
-      <c r="F2" t="s">
-        <v>420</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E2" s="15">
+        <v>15533</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>517</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>384</v>
+        <v>142</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J2">
-        <v>-11.24</v>
-      </c>
-      <c r="K2">
-        <v>-46.81</v>
-      </c>
-      <c r="L2">
-        <v>523</v>
-      </c>
-      <c r="M2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="20">
+        <v>-13.45</v>
+      </c>
+      <c r="K2" s="20">
+        <v>-46.45</v>
+      </c>
+      <c r="L2" s="20">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>418</v>
+        <v>516</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="E3" s="1">
-        <v>14609</v>
+        <v>15558</v>
       </c>
       <c r="F3" t="s">
-        <v>423</v>
+        <v>518</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>382</v>
+        <v>161</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>384</v>
+        <v>142</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J3">
-        <v>-11.24</v>
-      </c>
-      <c r="K3">
-        <v>-46.81</v>
-      </c>
-      <c r="L3">
-        <v>523</v>
-      </c>
-      <c r="M3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>447</v>
+      </c>
+      <c r="J3" s="20">
+        <v>-13.45</v>
+      </c>
+      <c r="K3" s="20">
+        <v>-46.45</v>
+      </c>
+      <c r="L3" s="20">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14808</v>
-      </c>
-      <c r="F4" t="s">
-        <v>424</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J4">
-        <v>-11.24</v>
-      </c>
-      <c r="K4">
-        <v>-46.81</v>
-      </c>
-      <c r="L4">
-        <v>523</v>
-      </c>
-      <c r="M4" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="15">
+        <v>15560</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="20">
+        <v>-13.45</v>
+      </c>
+      <c r="K4" s="20">
+        <v>-46.45</v>
+      </c>
+      <c r="L4" s="20">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="15">
+        <v>15568</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="20">
+        <v>-13.45</v>
+      </c>
+      <c r="K5" s="20">
+        <v>-46.45</v>
+      </c>
+      <c r="L5" s="20">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15569</v>
+      </c>
+      <c r="F6" t="s">
+        <v>522</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J6" s="20">
+        <v>-13.45</v>
+      </c>
+      <c r="K6" s="20">
+        <v>-46.45</v>
+      </c>
+      <c r="L6" s="20">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="E5" s="1">
-        <v>55881</v>
-      </c>
-      <c r="F5" t="s">
-        <v>427</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5">
-        <v>-15.2</v>
-      </c>
-      <c r="K5">
-        <v>-52.5</v>
-      </c>
-      <c r="L5">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="1">
-        <v>55883</v>
-      </c>
-      <c r="F6" t="s">
-        <v>428</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6">
-        <v>-15.2</v>
-      </c>
-      <c r="K6">
-        <v>-52.5</v>
-      </c>
-      <c r="L6">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E7" s="1">
-        <v>63196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>205</v>
+      <c r="E7" s="15">
+        <v>55880</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>204</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="J7">
-        <v>-15.2</v>
+        <v>-14.69</v>
       </c>
       <c r="K7">
-        <v>-52.5</v>
+        <v>-52.34</v>
       </c>
       <c r="L7">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E8" s="15">
-        <v>63198</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>205</v>
+      <c r="E8" s="1">
+        <v>55884</v>
+      </c>
+      <c r="F8" t="s">
+        <v>482</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>204</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>483</v>
       </c>
       <c r="J8">
-        <v>-15.2</v>
+        <v>-14.69</v>
       </c>
       <c r="K8">
-        <v>-52.5</v>
+        <v>-52.34</v>
       </c>
       <c r="L8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -8927,318 +8960,320 @@
         <v>432</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E9" s="1">
-        <v>889</v>
+        <v>55885</v>
       </c>
       <c r="F9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>205</v>
+        <v>484</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>481</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="J9">
-        <v>-15.88</v>
+        <v>-14.69</v>
       </c>
       <c r="K9">
-        <v>-52.25</v>
+        <v>-52.34</v>
       </c>
       <c r="L9">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1038</v>
-      </c>
-      <c r="F10" t="s">
-        <v>436</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10">
-        <v>-7.37</v>
-      </c>
-      <c r="K10">
-        <v>-47.43</v>
-      </c>
-      <c r="L10">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="15">
+        <v>55887</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K10" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L10" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="1">
-        <v>196</v>
-      </c>
-      <c r="F11" t="s">
-        <v>437</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11">
-        <v>-7.37</v>
-      </c>
-      <c r="K11">
-        <v>-47.43</v>
-      </c>
-      <c r="L11">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="15">
+        <v>55888</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K11" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L11" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E12" s="1">
-        <v>197</v>
-      </c>
-      <c r="F12" t="s">
-        <v>438</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12">
-        <v>-7.37</v>
-      </c>
-      <c r="K12">
-        <v>-47.43</v>
-      </c>
-      <c r="L12">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="15">
+        <v>55889</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K12" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L12" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>426</v>
       </c>
       <c r="E13" s="1">
-        <v>45283</v>
+        <v>55890</v>
       </c>
       <c r="F13" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="K13">
-        <v>-49.84</v>
-      </c>
-      <c r="L13">
-        <v>186</v>
-      </c>
-      <c r="M13" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J13" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K13" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L13" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E14" s="15">
-        <v>45318</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>440</v>
+      <c r="E14" s="1">
+        <v>63195</v>
+      </c>
+      <c r="F14" t="s">
+        <v>490</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J14">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="K14">
-        <v>-49.84</v>
-      </c>
-      <c r="L14">
-        <v>186</v>
-      </c>
-      <c r="M14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J14" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K14" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L14" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>10</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E15" s="15">
-        <v>45321</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="K15">
-        <v>-49.84</v>
-      </c>
-      <c r="L15">
-        <v>186</v>
-      </c>
-      <c r="M15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
+        <v>63203</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J15" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K15" s="20">
+        <v>-52.34</v>
+      </c>
+      <c r="L15" s="20">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>9</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="D16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="15">
-        <v>45336</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>442</v>
+      <c r="E16" s="1">
+        <v>63204</v>
+      </c>
+      <c r="F16" t="s">
+        <v>492</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>391</v>
+        <v>481</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16">
-        <v>-9.3699999999999992</v>
-      </c>
-      <c r="K16">
-        <v>-49.84</v>
+        <v>204</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="J16" s="20">
+        <v>-14.69</v>
+      </c>
+      <c r="K16" s="20">
+        <v>-52.34</v>
       </c>
       <c r="L16" s="20">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>426</v>
       </c>
       <c r="E17" s="15">
-        <v>53290</v>
+        <v>38645</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>445</v>
+        <v>145</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>142</v>
@@ -9247,1706 +9282,1711 @@
         <v>12</v>
       </c>
       <c r="J17">
-        <v>-13.64</v>
+        <v>-15.64</v>
       </c>
       <c r="K17">
-        <v>-47.72</v>
+        <v>-48.55</v>
       </c>
       <c r="L17">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E18" s="1">
-        <v>53292</v>
-      </c>
-      <c r="F18" t="s">
-        <v>446</v>
+      <c r="E18" s="15">
+        <v>38646</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>451</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>445</v>
+        <v>145</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>447</v>
+        <v>12</v>
       </c>
       <c r="J18">
-        <v>-13.64</v>
+        <v>-15.64</v>
       </c>
       <c r="K18">
-        <v>-47.72</v>
+        <v>-48.55</v>
       </c>
       <c r="L18">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E19" s="1">
-        <v>53293</v>
+      <c r="E19" s="26">
+        <v>67394</v>
       </c>
       <c r="F19" t="s">
-        <v>448</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>445</v>
+        <v>508</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J19">
-        <v>-13.64</v>
-      </c>
-      <c r="K19">
-        <v>-47.72</v>
-      </c>
-      <c r="L19">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="J19" s="20">
+        <v>-15.81</v>
+      </c>
+      <c r="K19" s="20">
+        <v>-48.87</v>
+      </c>
+      <c r="L19" s="20">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>12</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E20" s="15">
-        <v>38645</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>145</v>
+      <c r="E20" s="26">
+        <v>67395</v>
+      </c>
+      <c r="F20" t="s">
+        <v>510</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>157</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20">
-        <v>-15.64</v>
-      </c>
-      <c r="K20">
-        <v>-48.55</v>
-      </c>
-      <c r="L20">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="J20" s="20">
+        <v>-15.81</v>
+      </c>
+      <c r="K20" s="20">
+        <v>-48.87</v>
+      </c>
+      <c r="L20" s="20">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>13</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E21" s="15">
-        <v>38646</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="E21" s="26">
+        <v>67396</v>
+      </c>
+      <c r="F21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21">
-        <v>-15.64</v>
-      </c>
-      <c r="K21">
-        <v>-48.55</v>
-      </c>
-      <c r="L21">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>509</v>
+      </c>
+      <c r="J21" s="20">
+        <v>-15.81</v>
+      </c>
+      <c r="K21" s="20">
+        <v>-48.87</v>
+      </c>
+      <c r="L21" s="20">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E22" s="15">
+        <v>67441</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="20">
+        <v>-15.81</v>
+      </c>
+      <c r="K22" s="20">
+        <v>-48.87</v>
+      </c>
+      <c r="L22" s="20">
+        <v>1310</v>
+      </c>
+      <c r="M22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E23" s="1">
+        <v>67443</v>
+      </c>
+      <c r="F23" t="s">
+        <v>514</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="J23" s="20">
+        <v>-15.81</v>
+      </c>
+      <c r="K23" s="20">
+        <v>-48.87</v>
+      </c>
+      <c r="L23" s="20">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D24" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E24" s="1">
         <v>44704</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F24" t="s">
         <v>453</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22">
-        <v>-13.99</v>
-      </c>
-      <c r="K22">
-        <v>-48.09</v>
-      </c>
-      <c r="L22">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1293</v>
-      </c>
-      <c r="F23" t="s">
-        <v>454</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23">
-        <v>-6.56</v>
-      </c>
-      <c r="K23">
-        <v>-47.45</v>
-      </c>
-      <c r="L23">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E24" s="1">
-        <v>642</v>
-      </c>
-      <c r="F24" t="s">
-        <v>455</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24">
-        <v>-6.56</v>
+        <v>-13.99</v>
       </c>
       <c r="K24">
-        <v>-47.45</v>
+        <v>-48.09</v>
       </c>
       <c r="L24">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1759</v>
+        <v>468</v>
+      </c>
+      <c r="E25" s="22">
+        <v>2152</v>
       </c>
       <c r="F25" t="s">
-        <v>456</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>393</v>
+        <v>469</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="J25">
-        <v>-7.69</v>
+        <v>-13.5</v>
       </c>
       <c r="K25">
-        <v>-47.35</v>
+        <v>48.4</v>
       </c>
       <c r="L25">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1808</v>
-      </c>
-      <c r="F26" t="s">
-        <v>457</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>393</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="15">
+        <v>2204</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J26">
-        <v>-7.69</v>
+        <v>-13.5</v>
       </c>
       <c r="K26">
-        <v>-47.35</v>
+        <v>48.4</v>
       </c>
       <c r="L26">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E27" s="1">
-        <v>7552</v>
-      </c>
-      <c r="F27" t="s">
-        <v>458</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>459</v>
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="15">
+        <v>2211</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>471</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J27">
-        <v>-8.83</v>
+        <v>-13.5</v>
       </c>
       <c r="K27">
-        <v>-48.52</v>
+        <v>48.4</v>
       </c>
       <c r="L27">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>18</v>
-      </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" s="1">
-        <v>7598</v>
-      </c>
-      <c r="F28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>459</v>
+        <v>26</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E28" s="15">
+        <v>832</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I28" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J28">
-        <v>-8.83</v>
+        <v>-13.5</v>
       </c>
       <c r="K28">
-        <v>-48.52</v>
+        <v>48.4</v>
       </c>
       <c r="L28">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="E29" s="1">
-        <v>215</v>
+        <v>1072</v>
       </c>
       <c r="F29" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>463</v>
+        <v>155</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>384</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29">
-        <v>-9.85</v>
+        <v>-14.45</v>
       </c>
       <c r="K29">
-        <v>-48.32</v>
+        <v>-48.45</v>
       </c>
       <c r="L29">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>21</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E30" s="4">
-        <v>28219</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>399</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1075</v>
+      </c>
+      <c r="F30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>421</v>
-      </c>
+      <c r="I30" s="1"/>
       <c r="J30">
-        <v>-10.7</v>
+        <v>-14.45</v>
       </c>
       <c r="K30">
-        <v>-46.41</v>
+        <v>-48.45</v>
       </c>
       <c r="L30">
-        <v>629</v>
-      </c>
-      <c r="M30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>21</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E31" s="4">
-        <v>28220</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>466</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>399</v>
+      <c r="E31" s="1">
+        <v>55881</v>
+      </c>
+      <c r="F31" t="s">
+        <v>427</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="H31" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31">
+        <v>-15.2</v>
+      </c>
+      <c r="K31">
+        <v>-52.5</v>
+      </c>
+      <c r="L31">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E32" s="1">
+        <v>55883</v>
+      </c>
+      <c r="F32" t="s">
+        <v>428</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32">
+        <v>-15.2</v>
+      </c>
+      <c r="K32">
+        <v>-52.5</v>
+      </c>
+      <c r="L32">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E33" s="1">
+        <v>63196</v>
+      </c>
+      <c r="F33" t="s">
+        <v>429</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J33">
+        <v>-15.2</v>
+      </c>
+      <c r="K33">
+        <v>-52.5</v>
+      </c>
+      <c r="L33">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="E34" s="15">
+        <v>63198</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>-15.2</v>
+      </c>
+      <c r="K34">
+        <v>-52.5</v>
+      </c>
+      <c r="L34">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E35" s="1">
+        <v>889</v>
+      </c>
+      <c r="F35" t="s">
+        <v>434</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J31">
-        <v>-10.7</v>
-      </c>
-      <c r="K31">
-        <v>-46.41</v>
-      </c>
-      <c r="L31">
-        <v>629</v>
-      </c>
-      <c r="M31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>21</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35">
+        <v>-15.88</v>
+      </c>
+      <c r="K35">
+        <v>-52.25</v>
+      </c>
+      <c r="L35">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>37</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E36" s="15">
+        <v>10771</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J36" s="20">
+        <v>-10.19</v>
+      </c>
+      <c r="K36" s="20">
+        <v>-48.11</v>
+      </c>
+      <c r="L36" s="20">
+        <v>657</v>
+      </c>
+      <c r="M36" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E32" s="4">
-        <v>28222</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>467</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="E37" s="1">
+        <v>14555</v>
+      </c>
+      <c r="F37" t="s">
+        <v>498</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J32">
-        <v>-10.7</v>
-      </c>
-      <c r="K32">
-        <v>-46.41</v>
-      </c>
-      <c r="L32">
-        <v>629</v>
-      </c>
-      <c r="M32" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>23</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E33" s="22">
-        <v>2152</v>
-      </c>
-      <c r="F33" t="s">
-        <v>469</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J33">
-        <v>-13.5</v>
-      </c>
-      <c r="K33">
-        <v>48.4</v>
-      </c>
-      <c r="L33">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
-        <v>24</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2204</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34">
-        <v>-13.5</v>
-      </c>
-      <c r="K34">
-        <v>48.4</v>
-      </c>
-      <c r="L34">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>25</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E35" s="15">
-        <v>2211</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35">
-        <v>-13.5</v>
-      </c>
-      <c r="K35">
-        <v>48.4</v>
-      </c>
-      <c r="L35">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>26</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D36" s="24" t="s">
+      <c r="I37" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="J37" s="20">
+        <v>-10.19</v>
+      </c>
+      <c r="K37" s="20">
+        <v>-48.11</v>
+      </c>
+      <c r="L37" s="20">
+        <v>657</v>
+      </c>
+      <c r="M37" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E36" s="15">
-        <v>832</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36">
-        <v>-13.5</v>
-      </c>
-      <c r="K36">
-        <v>48.4</v>
-      </c>
-      <c r="L36">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>27</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E37" s="4">
-        <v>53054</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J37">
-        <v>-13.25</v>
-      </c>
-      <c r="K37">
-        <v>-46.9</v>
-      </c>
-      <c r="L37">
-        <v>579</v>
-      </c>
-      <c r="M37" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>28</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="E38" s="4">
-        <v>53058</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>475</v>
+      <c r="E38" s="15">
+        <v>53290</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>444</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>153</v>
+        <v>445</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="J38">
-        <v>-13.25</v>
+        <v>-13.64</v>
       </c>
       <c r="K38">
-        <v>-46.9</v>
+        <v>-47.72</v>
       </c>
       <c r="L38">
-        <v>579</v>
-      </c>
-      <c r="M38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>28</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E39" s="4">
-        <v>53059</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>476</v>
+      <c r="E39" s="1">
+        <v>53292</v>
+      </c>
+      <c r="F39" t="s">
+        <v>446</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>153</v>
+        <v>445</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="J39">
-        <v>-13.25</v>
+        <v>-13.64</v>
       </c>
       <c r="K39">
-        <v>-46.9</v>
+        <v>-47.72</v>
       </c>
       <c r="L39">
-        <v>579</v>
-      </c>
-      <c r="M39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>28</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E40" s="4">
-        <v>53061</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>477</v>
+      <c r="E40" s="1">
+        <v>53293</v>
+      </c>
+      <c r="F40" t="s">
+        <v>448</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>153</v>
+        <v>445</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J40">
+        <v>-13.64</v>
+      </c>
+      <c r="K40">
+        <v>-47.72</v>
+      </c>
+      <c r="L40">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>27</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E41" s="4">
+        <v>53054</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>-13.25</v>
       </c>
-      <c r="K40">
+      <c r="K41">
         <v>-46.9</v>
       </c>
-      <c r="L40">
+      <c r="L41">
         <v>579</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M41" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1072</v>
-      </c>
-      <c r="F41" t="s">
-        <v>478</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H41" s="1" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>28</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="4">
+        <v>53058</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J42">
+        <v>-13.25</v>
+      </c>
+      <c r="K42">
+        <v>-46.9</v>
+      </c>
+      <c r="L42">
+        <v>579</v>
+      </c>
+      <c r="M42" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>28</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E43" s="4">
+        <v>53059</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J43">
+        <v>-13.25</v>
+      </c>
+      <c r="K43">
+        <v>-46.9</v>
+      </c>
+      <c r="L43">
+        <v>579</v>
+      </c>
+      <c r="M43" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>28</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E44" s="4">
+        <v>53061</v>
+      </c>
+      <c r="F44" s="21" t="s">
+        <v>477</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J44">
+        <v>-13.25</v>
+      </c>
+      <c r="K44">
+        <v>-46.9</v>
+      </c>
+      <c r="L44">
+        <v>579</v>
+      </c>
+      <c r="M44" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>39</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E45" s="15">
+        <v>15781</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41">
-        <v>-14.45</v>
-      </c>
-      <c r="K41">
-        <v>-48.45</v>
-      </c>
-      <c r="L41">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1075</v>
-      </c>
-      <c r="F42" t="s">
-        <v>479</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="H42" s="1" t="s">
+      <c r="I45" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="J45" s="20">
+        <v>-12.75</v>
+      </c>
+      <c r="K45" s="20">
+        <v>-47.76</v>
+      </c>
+      <c r="L45" s="20">
+        <v>289</v>
+      </c>
+      <c r="M45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E46" s="1">
+        <v>15869</v>
+      </c>
+      <c r="F46" t="s">
+        <v>501</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42">
-        <v>-14.45</v>
-      </c>
-      <c r="K42">
-        <v>-48.45</v>
-      </c>
-      <c r="L42">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>30</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D43" s="24" t="s">
+      <c r="I46" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J46" s="20">
+        <v>-12.75</v>
+      </c>
+      <c r="K46" s="20">
+        <v>-47.76</v>
+      </c>
+      <c r="L46" s="20">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E43" s="15">
-        <v>55880</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J43">
-        <v>-14.69</v>
-      </c>
-      <c r="K43">
-        <v>-52.34</v>
-      </c>
-      <c r="L43">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E47" s="1">
+        <v>37090</v>
+      </c>
+      <c r="F47" t="s">
+        <v>502</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J47" s="20">
+        <v>-12.75</v>
+      </c>
+      <c r="K47" s="20">
+        <v>-47.76</v>
+      </c>
+      <c r="L47" s="20">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E44" s="1">
-        <v>55884</v>
-      </c>
-      <c r="F44" t="s">
-        <v>482</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="J44">
-        <v>-14.69</v>
-      </c>
-      <c r="K44">
-        <v>-52.34</v>
-      </c>
-      <c r="L44">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E45" s="1">
-        <v>55885</v>
-      </c>
-      <c r="F45" t="s">
-        <v>484</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="E48" s="1">
+        <v>37125</v>
+      </c>
+      <c r="F48" t="s">
+        <v>503</v>
+      </c>
+      <c r="G48" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>447</v>
       </c>
-      <c r="J45">
-        <v>-14.69</v>
-      </c>
-      <c r="K45">
-        <v>-52.34</v>
-      </c>
-      <c r="L45">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>30</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E46" s="15">
-        <v>55887</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="20">
-        <v>-14.69</v>
-      </c>
-      <c r="K46" s="20">
-        <v>-52.34</v>
-      </c>
-      <c r="L46" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>30</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E47" s="15">
-        <v>55888</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="20">
-        <v>-14.69</v>
-      </c>
-      <c r="K47" s="20">
-        <v>-52.34</v>
-      </c>
-      <c r="L47" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>31</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E48" s="15">
-        <v>55889</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="J48" s="20">
-        <v>-14.69</v>
+        <v>-12.75</v>
       </c>
       <c r="K48" s="20">
-        <v>-52.34</v>
+        <v>-47.76</v>
       </c>
       <c r="L48" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
         <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>426</v>
       </c>
       <c r="E49" s="1">
-        <v>55890</v>
+        <v>37128</v>
       </c>
       <c r="F49" t="s">
-        <v>488</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>481</v>
+        <v>504</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="H49" s="19" t="s">
-        <v>204</v>
+        <v>384</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>489</v>
+        <v>447</v>
       </c>
       <c r="J49" s="20">
-        <v>-14.69</v>
+        <v>-12.75</v>
       </c>
       <c r="K49" s="20">
-        <v>-52.34</v>
+        <v>-47.76</v>
       </c>
       <c r="L49" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E50" s="1">
-        <v>63195</v>
-      </c>
-      <c r="F50" t="s">
-        <v>490</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E50" s="15">
+        <v>15566</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="H50" s="19" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>489</v>
+        <v>12</v>
       </c>
       <c r="J50" s="20">
-        <v>-14.69</v>
+        <v>-13.45</v>
       </c>
       <c r="K50" s="20">
-        <v>-52.34</v>
+        <v>-46.45</v>
       </c>
       <c r="L50" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="E51" s="1">
-        <v>63203</v>
+        <v>37161</v>
       </c>
       <c r="F51" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>481</v>
+        <v>161</v>
       </c>
       <c r="H51" s="19" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
       <c r="I51" s="19" t="s">
         <v>489</v>
       </c>
       <c r="J51" s="20">
-        <v>-14.69</v>
+        <v>-13.45</v>
       </c>
       <c r="K51" s="20">
-        <v>-52.34</v>
+        <v>-46.45</v>
       </c>
       <c r="L51" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E52" s="1">
-        <v>63204</v>
+        <v>14578</v>
       </c>
       <c r="F52" t="s">
-        <v>492</v>
-      </c>
-      <c r="G52" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="J52" s="20">
-        <v>-14.69</v>
-      </c>
-      <c r="K52" s="20">
-        <v>-52.34</v>
-      </c>
-      <c r="L52" s="20">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>420</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J52">
+        <v>-11.24</v>
+      </c>
+      <c r="K52">
+        <v>-46.81</v>
+      </c>
+      <c r="L52">
+        <v>523</v>
+      </c>
+      <c r="M52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>36</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D53" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E53" s="15">
-        <v>10440</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>493</v>
+      <c r="D53" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E53" s="1">
+        <v>14609</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>384</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J53" s="20">
-        <v>-10.19</v>
-      </c>
-      <c r="K53" s="20">
-        <v>-48.11</v>
-      </c>
-      <c r="L53" s="20">
-        <v>657</v>
+        <v>421</v>
+      </c>
+      <c r="J53">
+        <v>-11.24</v>
+      </c>
+      <c r="K53">
+        <v>-46.81</v>
+      </c>
+      <c r="L53">
+        <v>523</v>
       </c>
       <c r="M53" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>36</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E54" s="15">
-        <v>10442</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>496</v>
+      <c r="D54" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E54" s="1">
+        <v>14808</v>
+      </c>
+      <c r="F54" t="s">
+        <v>424</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>384</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="J54" s="20">
-        <v>-10.19</v>
-      </c>
-      <c r="K54" s="20">
-        <v>-48.11</v>
-      </c>
-      <c r="L54" s="20">
-        <v>657</v>
+        <v>421</v>
+      </c>
+      <c r="J54">
+        <v>-11.24</v>
+      </c>
+      <c r="K54">
+        <v>-46.81</v>
+      </c>
+      <c r="L54">
+        <v>523</v>
       </c>
       <c r="M54" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>37</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E55" s="15">
-        <v>10771</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="G55" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="H55" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="J55" s="20">
-        <v>-10.19</v>
-      </c>
-      <c r="K55" s="20">
-        <v>-48.11</v>
-      </c>
-      <c r="L55" s="20">
-        <v>657</v>
-      </c>
-      <c r="M55" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1038</v>
+      </c>
+      <c r="F55" t="s">
+        <v>436</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55">
+        <v>-7.37</v>
+      </c>
+      <c r="K55">
+        <v>-47.43</v>
+      </c>
+      <c r="L55">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E56" s="1">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56">
+        <v>-7.37</v>
+      </c>
+      <c r="K56">
+        <v>-47.43</v>
+      </c>
+      <c r="L56">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E57" s="1">
+        <v>197</v>
+      </c>
+      <c r="F57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57">
+        <v>-7.37</v>
+      </c>
+      <c r="K57">
+        <v>-47.43</v>
+      </c>
+      <c r="L57">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="E56" s="1">
-        <v>14555</v>
-      </c>
-      <c r="F56" t="s">
-        <v>498</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="H56" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="J56" s="20">
-        <v>-10.19</v>
-      </c>
-      <c r="K56" s="20">
-        <v>-48.11</v>
-      </c>
-      <c r="L56" s="20">
-        <v>657</v>
-      </c>
-      <c r="M56" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>39</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E57" s="15">
-        <v>15781</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="J57" s="20">
-        <v>-12.75</v>
-      </c>
-      <c r="K57" s="20">
-        <v>-47.76</v>
-      </c>
-      <c r="L57" s="20">
-        <v>289</v>
-      </c>
-      <c r="M57" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="E58" s="1">
-        <v>15869</v>
+        <v>45283</v>
       </c>
       <c r="F58" t="s">
-        <v>501</v>
+        <v>439</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J58" s="20">
-        <v>-12.75</v>
-      </c>
-      <c r="K58" s="20">
-        <v>-47.76</v>
-      </c>
-      <c r="L58" s="20">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+      <c r="J58">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="K58">
+        <v>-49.84</v>
+      </c>
+      <c r="L58">
+        <v>186</v>
+      </c>
+      <c r="M58" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>41</v>
-      </c>
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E59" s="1">
-        <v>37090</v>
-      </c>
-      <c r="F59" t="s">
-        <v>502</v>
+      <c r="E59" s="15">
+        <v>45318</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>440</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>384</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J59" s="20">
-        <v>-12.75</v>
-      </c>
-      <c r="K59" s="20">
-        <v>-47.76</v>
-      </c>
-      <c r="L59" s="20">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+        <v>421</v>
+      </c>
+      <c r="J59">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="K59">
+        <v>-49.84</v>
+      </c>
+      <c r="L59">
+        <v>186</v>
+      </c>
+      <c r="M59" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E60" s="1">
-        <v>37125</v>
-      </c>
-      <c r="F60" t="s">
-        <v>503</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="H60" s="19" t="s">
+      <c r="E60" s="15">
+        <v>45321</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I60" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J60" s="20">
-        <v>-12.75</v>
-      </c>
-      <c r="K60" s="20">
-        <v>-47.76</v>
-      </c>
-      <c r="L60" s="20">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I60" s="1"/>
+      <c r="J60">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="K60">
+        <v>-49.84</v>
+      </c>
+      <c r="L60">
+        <v>186</v>
+      </c>
+      <c r="M60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>41</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="E61" s="1">
-        <v>37128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>504</v>
+      <c r="E61" s="15">
+        <v>45336</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>442</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H61" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="I61" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="J61" s="20">
-        <v>-12.75</v>
-      </c>
-      <c r="K61" s="20">
-        <v>-47.76</v>
+      <c r="I61" s="19"/>
+      <c r="J61">
+        <v>-9.3699999999999992</v>
+      </c>
+      <c r="K61">
+        <v>-49.84</v>
       </c>
       <c r="L61" s="20">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="M61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -10955,34 +10995,34 @@
         <v>418</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="E62" s="1">
-        <v>3949</v>
+        <v>1293</v>
       </c>
       <c r="F62" t="s">
-        <v>506</v>
+        <v>454</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>404</v>
+        <v>170</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="I62" s="1"/>
-      <c r="J62" s="20">
-        <v>-12.03</v>
-      </c>
-      <c r="K62" s="20">
-        <v>-48.35</v>
-      </c>
-      <c r="L62" s="20">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>-6.56</v>
+      </c>
+      <c r="K62">
+        <v>-47.45</v>
+      </c>
+      <c r="L62">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -10991,491 +11031,489 @@
         <v>418</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>505</v>
+        <v>435</v>
       </c>
       <c r="E63" s="1">
-        <v>4459</v>
+        <v>642</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>455</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>404</v>
+        <v>170</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63">
+        <v>-6.56</v>
+      </c>
+      <c r="K63">
+        <v>-47.45</v>
+      </c>
+      <c r="L63">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1759</v>
+      </c>
+      <c r="F64" t="s">
+        <v>456</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="20">
-        <v>-12.03</v>
-      </c>
-      <c r="K63" s="20">
-        <v>-48.35</v>
-      </c>
-      <c r="L63" s="20">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>45</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64">
+        <v>-7.69</v>
+      </c>
+      <c r="K64">
+        <v>-47.35</v>
+      </c>
+      <c r="L64">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1808</v>
+      </c>
+      <c r="F65" t="s">
+        <v>457</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65">
+        <v>-7.69</v>
+      </c>
+      <c r="K65">
+        <v>-47.35</v>
+      </c>
+      <c r="L65">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>18</v>
+      </c>
+      <c r="B66" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7552</v>
+      </c>
+      <c r="F66" t="s">
+        <v>458</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66">
+        <v>-8.83</v>
+      </c>
+      <c r="K66">
+        <v>-48.52</v>
+      </c>
+      <c r="L66">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="E67" s="1">
+        <v>7598</v>
+      </c>
+      <c r="F67" t="s">
+        <v>460</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67">
+        <v>-8.83</v>
+      </c>
+      <c r="K67">
+        <v>-48.52</v>
+      </c>
+      <c r="L67">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>19</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E68" s="1">
+        <v>215</v>
+      </c>
+      <c r="F68" t="s">
+        <v>462</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68">
+        <v>-9.85</v>
+      </c>
+      <c r="K68">
+        <v>-48.32</v>
+      </c>
+      <c r="L68">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>21</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E64" s="26">
-        <v>67394</v>
-      </c>
-      <c r="F64" t="s">
-        <v>508</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J64" s="20">
-        <v>-15.81</v>
-      </c>
-      <c r="K64" s="20">
-        <v>-48.87</v>
-      </c>
-      <c r="L64" s="20">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>45</v>
-      </c>
-      <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E69" s="4">
+        <v>28219</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69">
+        <v>-10.7</v>
+      </c>
+      <c r="K69">
+        <v>-46.41</v>
+      </c>
+      <c r="L69">
+        <v>629</v>
+      </c>
+      <c r="M69" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>21</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E65" s="26">
-        <v>67395</v>
-      </c>
-      <c r="F65" t="s">
-        <v>510</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J65" s="20">
-        <v>-15.81</v>
-      </c>
-      <c r="K65" s="20">
-        <v>-48.87</v>
-      </c>
-      <c r="L65" s="20">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>45</v>
-      </c>
-      <c r="B66" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="E70" s="4">
+        <v>28220</v>
+      </c>
+      <c r="F70" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70">
+        <v>-10.7</v>
+      </c>
+      <c r="K70">
+        <v>-46.41</v>
+      </c>
+      <c r="L70">
+        <v>629</v>
+      </c>
+      <c r="M70" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>21</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="E66" s="26">
-        <v>67396</v>
-      </c>
-      <c r="F66" t="s">
-        <v>511</v>
-      </c>
-      <c r="G66" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H66" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="J66" s="20">
-        <v>-15.81</v>
-      </c>
-      <c r="K66" s="20">
-        <v>-48.87</v>
-      </c>
-      <c r="L66" s="20">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>46</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="E67" s="15">
-        <v>67441</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="G67" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H67" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I67" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="20">
-        <v>-15.81</v>
-      </c>
-      <c r="K67" s="20">
-        <v>-48.87</v>
-      </c>
-      <c r="L67" s="20">
-        <v>1310</v>
-      </c>
-      <c r="M67" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>45</v>
-      </c>
-      <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E68" s="1">
-        <v>67443</v>
-      </c>
-      <c r="F68" t="s">
-        <v>514</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="H68" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="J68" s="20">
-        <v>-15.81</v>
-      </c>
-      <c r="K68" s="20">
-        <v>-48.87</v>
-      </c>
-      <c r="L68" s="20">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>47</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E69" s="15">
-        <v>15533</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="20">
-        <v>-13.45</v>
-      </c>
-      <c r="K69" s="20">
-        <v>-46.45</v>
-      </c>
-      <c r="L69" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>47</v>
-      </c>
-      <c r="B70" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E70" s="1">
-        <v>15558</v>
-      </c>
-      <c r="F70" t="s">
-        <v>518</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J70" s="20">
-        <v>-13.45</v>
-      </c>
-      <c r="K70" s="20">
-        <v>-46.45</v>
-      </c>
-      <c r="L70" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>47</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="E71" s="15">
-        <v>15560</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H71" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="20">
-        <v>-13.45</v>
-      </c>
-      <c r="K71" s="20">
-        <v>-46.45</v>
-      </c>
-      <c r="L71" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E71" s="4">
+        <v>28222</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71">
+        <v>-10.7</v>
+      </c>
+      <c r="K71">
+        <v>-46.41</v>
+      </c>
+      <c r="L71">
+        <v>629</v>
+      </c>
+      <c r="M71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>468</v>
       </c>
       <c r="E72" s="15">
-        <v>15566</v>
+        <v>10440</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="G72" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H72" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I72" s="19" t="s">
-        <v>12</v>
+        <v>493</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="J72" s="20">
-        <v>-13.45</v>
+        <v>-10.19</v>
       </c>
       <c r="K72" s="20">
-        <v>-46.45</v>
+        <v>-48.11</v>
       </c>
       <c r="L72" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="M72" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>468</v>
       </c>
       <c r="E73" s="15">
-        <v>15568</v>
+        <v>10442</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I73" s="19" t="s">
-        <v>12</v>
+        <v>496</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="J73" s="20">
-        <v>-13.45</v>
+        <v>-10.19</v>
       </c>
       <c r="K73" s="20">
-        <v>-46.45</v>
+        <v>-48.11</v>
       </c>
       <c r="L73" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+      <c r="M73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
         <v>57</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>516</v>
+        <v>418</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="E74" s="1">
-        <v>15569</v>
+        <v>3949</v>
       </c>
       <c r="F74" t="s">
-        <v>522</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>489</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I74" s="1"/>
       <c r="J74" s="20">
-        <v>-13.45</v>
+        <v>-12.03</v>
       </c>
       <c r="K74" s="20">
-        <v>-46.45</v>
+        <v>-48.35</v>
       </c>
       <c r="L74" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
         <v>57</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="E75" s="1">
-        <v>37161</v>
+        <v>4459</v>
       </c>
       <c r="F75" t="s">
-        <v>523</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="H75" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I75" s="19" t="s">
-        <v>489</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I75" s="1"/>
       <c r="J75" s="20">
-        <v>-13.45</v>
+        <v>-12.03</v>
       </c>
       <c r="K75" s="20">
-        <v>-46.45</v>
+        <v>-48.35</v>
       </c>
       <c r="L75" s="20">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>49</v>
       </c>
@@ -11511,7 +11549,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>50</v>
       </c>
@@ -11548,6 +11586,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M77">
+    <sortCondition ref="C1:C77"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -11556,4 +11597,490 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3712174-7C9B-4DCE-A23F-45385744F133}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>42411</v>
+      </c>
+      <c r="B1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>42421</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>63197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>63198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>45319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>45329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>45336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>53062</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>53290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>38645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>38646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>28218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>28219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>28220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>28222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>28223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>28224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>28225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>28233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>53054</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>53058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>53059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>53060</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>53061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>55880</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>55883</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>55887</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>55888</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>55889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>11181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>11515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37086</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>67393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>67441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>38913</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>37148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>37152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>37153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>37162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D968D99E-12E4-40AA-8830-32E5407AFFDF}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1">
+        <v>37148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3">
+        <v>38646</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4">
+        <v>55889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C5">
+        <v>55887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6">
+        <v>55883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C7">
+        <v>55880</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C8">
+        <v>67393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>532</v>
+      </c>
+      <c r="B10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10">
+        <v>67441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C11">
+        <v>38645</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14">
+        <v>63198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B15" t="s">
+        <v>529</v>
+      </c>
+      <c r="C15">
+        <v>63197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>430</v>
+      </c>
+      <c r="B16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C16">
+        <v>11514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B17" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17">
+        <v>37088</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" t="s">
+        <v>529</v>
+      </c>
+      <c r="C18">
+        <v>28223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" t="s">
+        <v>529</v>
+      </c>
+      <c r="C19">
+        <v>11515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" t="s">
+        <v>529</v>
+      </c>
+      <c r="C20">
+        <v>38913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/dados/brutos/welington_gerais_id_colecao_coordenadas_fabricius.xlsx
+++ b/dados/brutos/welington_gerais_id_colecao_coordenadas_fabricius.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/55655b1a8b6da948/Documentos/mestrado_unb/lacv/analises_mestrado/dados/brutos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{D8C1DACC-A0A9-DA46-9DBB-5FD30503F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84699A5F-8A17-4724-BF82-6C76AA70E2AF}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{D8C1DACC-A0A9-DA46-9DBB-5FD30503F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{869A6654-F62C-4D35-8C1C-72EF55EE3184}"/>
   <bookViews>
-    <workbookView xWindow="190" yWindow="-20" windowWidth="8780" windowHeight="10800" tabRatio="992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral Cassimiro" sheetId="1" r:id="rId1"/>
     <sheet name="Domingos 2014" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Especimes_LACV_emprestimoCHUNB" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="538">
   <si>
     <t>Espécie</t>
   </si>
@@ -1628,40 +1628,37 @@
     <t>MRT6435</t>
   </si>
   <si>
-    <t>bichos na coleção</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>chunb</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>lacv</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b </t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>na</t>
+    <t>No_LACV</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>LACV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>Colecao</t>
+  </si>
+  <si>
+    <t>Hemipenis_Evertido</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
@@ -2363,7 +2360,7 @@
   <dimension ref="A1:H266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8634,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8665,7 +8662,7 @@
         <v>415</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>2</v>
+        <v>535</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>3</v>
@@ -8674,10 +8671,10 @@
         <v>416</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>4</v>
+        <v>536</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>5</v>
+        <v>537</v>
       </c>
       <c r="L1" s="11" t="s">
         <v>417</v>
@@ -11601,10 +11598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3712174-7C9B-4DCE-A23F-45385744F133}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -11613,8 +11610,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>42411</v>
+      <c r="A1" t="s">
+        <v>415</v>
       </c>
       <c r="B1" t="s">
         <v>527</v>
@@ -11622,227 +11619,370 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>42421</v>
+        <v>42411</v>
+      </c>
+      <c r="B2" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>63197</v>
+        <v>42421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>63198</v>
+        <v>63197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>45319</v>
+        <v>63198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>45329</v>
+        <v>45319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>45336</v>
+        <v>45329</v>
+      </c>
+      <c r="B7" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>53062</v>
+        <v>45336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>53290</v>
+        <v>53062</v>
+      </c>
+      <c r="B9" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>38645</v>
+        <v>53290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>38646</v>
+        <v>38645</v>
+      </c>
+      <c r="B11" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>28218</v>
+        <v>38646</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>28219</v>
+        <v>28218</v>
+      </c>
+      <c r="B13" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>28220</v>
+        <v>28219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>28222</v>
+        <v>28220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>28222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>28223</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="B17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>28224</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="B18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>28225</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="B19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>28233</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="B20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>832</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="B21" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>833</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="B22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>845</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="B23" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>854</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="B24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>856</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="B25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>53054</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="B26" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>53058</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="B27" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>53059</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="B28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>53060</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="B29" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>53061</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="B30" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>55880</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="B31" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>55883</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="B32" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>55887</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="B33" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>55888</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="B34" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>55889</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="B35" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>11181</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="B36" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>11514</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="B37" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>11515</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="B38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>37086</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="B39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>37088</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="B40" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>67393</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="B41" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>67441</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="B42" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>38913</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="B43" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>37148</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="B44" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>37152</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="B45" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>37153</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="B46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>37162</v>
+      </c>
+      <c r="B47" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -11852,232 +11992,306 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D968D99E-12E4-40AA-8830-32E5407AFFDF}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2">
+        <v>37148</v>
+      </c>
+      <c r="D2" t="s">
         <v>528</v>
       </c>
-      <c r="B1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C1">
-        <v>37148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>529</v>
       </c>
       <c r="C3">
+        <v>3236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4">
         <v>38646</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>533</v>
-      </c>
-      <c r="B4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C4">
-        <v>55889</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>530</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>426</v>
       </c>
       <c r="C5">
+        <v>55889</v>
+      </c>
+      <c r="D5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6">
         <v>55887</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B6" t="s">
-        <v>529</v>
-      </c>
-      <c r="C6">
+      <c r="D6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7">
         <v>55883</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7">
+      <c r="D7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>426</v>
+      </c>
+      <c r="C8">
         <v>55880</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C8">
+      <c r="D8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C9">
         <v>67393</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>530</v>
-      </c>
-      <c r="B9" t="s">
-        <v>531</v>
-      </c>
-      <c r="C9">
-        <v>3233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>529</v>
       </c>
       <c r="C10">
+        <v>3233</v>
+      </c>
+      <c r="D10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11">
         <v>67441</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B11" t="s">
-        <v>529</v>
-      </c>
-      <c r="C11">
+      <c r="D11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12">
         <v>38645</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C12">
+      <c r="D12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13">
         <v>833</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C13">
+      <c r="D13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14">
         <v>832</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>535</v>
-      </c>
-      <c r="B14" t="s">
-        <v>529</v>
-      </c>
-      <c r="C14">
+      <c r="D14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15">
         <v>63198</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>535</v>
-      </c>
-      <c r="B15" t="s">
-        <v>529</v>
-      </c>
-      <c r="C15">
+      <c r="D15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B16" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16">
         <v>63197</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>430</v>
-      </c>
-      <c r="B16" t="s">
-        <v>529</v>
-      </c>
-      <c r="C16">
+      <c r="D16" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>447</v>
+      </c>
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17">
         <v>11514</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>536</v>
-      </c>
-      <c r="B17" t="s">
-        <v>529</v>
-      </c>
-      <c r="C17">
+      <c r="D17" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B18" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18">
         <v>37088</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>537</v>
-      </c>
-      <c r="B18" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18">
+      <c r="D18" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>418</v>
+      </c>
+      <c r="B19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19">
         <v>28223</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" t="s">
-        <v>529</v>
-      </c>
-      <c r="C19">
+      <c r="D19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20">
         <v>11515</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B20" t="s">
-        <v>529</v>
-      </c>
-      <c r="C20">
+      <c r="D20" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21">
         <v>38913</v>
+      </c>
+      <c r="D21" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
